--- a/System obsługi osobowej komunikacji kolejowej/SOOKK.xlsx
+++ b/System obsługi osobowej komunikacji kolejowej/SOOKK.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bimba\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Programowanie\System obsługi osobowej komunikacji kolejowej\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA72E54-D1AF-46F4-8FCF-3AB8CCB1A184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31962F82-50AB-4C5E-8CAE-41B708F4EA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{8A2B6582-3872-4583-B8E2-C6C550DCCAAD}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="Przystanki" sheetId="4" r:id="rId4"/>
     <sheet name="Pasażerowie" sheetId="5" r:id="rId5"/>
     <sheet name="Bilety" sheetId="6" r:id="rId6"/>
+    <sheet name="Przykład" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="70">
   <si>
     <t>IDPociągu</t>
   </si>
@@ -174,6 +175,72 @@
   </si>
   <si>
     <t>IDStop</t>
+  </si>
+  <si>
+    <t>ID Biletu</t>
+  </si>
+  <si>
+    <t>Cena</t>
+  </si>
+  <si>
+    <t>Przystanek startowy</t>
+  </si>
+  <si>
+    <t>Przystanek końcowy</t>
+  </si>
+  <si>
+    <t>Data zakupu</t>
+  </si>
+  <si>
+    <t>№ Pociągu</t>
+  </si>
+  <si>
+    <t>Imie(Pasarzerowie)</t>
+  </si>
+  <si>
+    <t>Nazwisko(Pasażerowie)</t>
+  </si>
+  <si>
+    <t>IDPociągu(dwie środkowe liczby z kolumny IDBiletu)</t>
+  </si>
+  <si>
+    <t>NazwaPrzystanku(Przystanki)</t>
+  </si>
+  <si>
+    <t>NazwaPrzystanku(Przystanki</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>czas</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>Danny</t>
+  </si>
+  <si>
+    <t>ID Pociągu</t>
+  </si>
+  <si>
+    <t>Maszynista</t>
+  </si>
+  <si>
+    <t>[IDPociągu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imię' + ' ' + 'Nazwisko'[z tabeli Maszyniści] </t>
+  </si>
+  <si>
+    <t>Konduktor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Imię' + ' ' + 'Nazwisko'[z tabeli Maszyniści] </t>
+  </si>
+  <si>
+    <t>W drodze</t>
   </si>
 </sst>
 </file>
@@ -181,9 +248,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="000"/>
-    <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="170" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="000"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -363,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -372,40 +439,37 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -732,7 +796,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -821,7 +885,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -908,10 +972,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D63BF0-D6B3-4832-BD8D-23B1C77EC192}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A2" sqref="A2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1077,6 +1141,34 @@
         <v>INSERT INTO Pociągi VALUES (42, 2, 2, 0)</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1086,30 +1178,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C91372-A497-4A4E-9B2B-35997089006C}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" style="17" customWidth="1"/>
     <col min="2" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" style="17" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="14"/>
     <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="29"/>
-    <col min="7" max="7" width="8.88671875" style="29" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="20"/>
+    <col min="7" max="7" width="8.88671875" style="20" customWidth="1"/>
     <col min="8" max="8" width="115.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D1" s="8" t="s">
@@ -1118,34 +1210,34 @@
       <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
       <c r="B2">
         <v>11</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="17">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="str">
         <f>""&amp;A2&amp;""&amp;B2&amp;""&amp;C2&amp;""</f>
         <v>1111</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="24">
-        <v>0</v>
-      </c>
-      <c r="G2" s="32">
+      <c r="F2" s="19">
+        <v>0</v>
+      </c>
+      <c r="G2" s="25">
         <v>0.25</v>
       </c>
       <c r="H2" t="str">
@@ -1154,26 +1246,26 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="22">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
       <c r="B3">
         <v>11</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="17">
         <v>2</v>
       </c>
       <c r="D3" s="9" t="str">
-        <f t="shared" ref="D2:D6" si="1">""&amp;A3&amp;""&amp;B3&amp;""&amp;C3&amp;""</f>
+        <f t="shared" ref="D3:D5" si="1">""&amp;A3&amp;""&amp;B3&amp;""&amp;C3&amp;""</f>
         <v>1112</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="20">
         <v>0.2673611111111111</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="25">
         <v>0.27083333333333331</v>
       </c>
       <c r="H3" t="str">
@@ -1182,26 +1274,26 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="22">
+      <c r="A4" s="17">
         <v>1</v>
       </c>
       <c r="B4">
         <v>11</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="17">
         <v>3</v>
       </c>
       <c r="D4" s="9" t="str">
         <f t="shared" si="1"/>
         <v>1113</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="20">
         <v>0.28819444444444442</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="25">
         <v>0.29166666666666669</v>
       </c>
       <c r="H4" t="str">
@@ -1210,26 +1302,26 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+      <c r="A5" s="17">
         <v>1</v>
       </c>
       <c r="B5">
         <v>11</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="17">
         <v>4</v>
       </c>
       <c r="D5" s="9" t="str">
         <f t="shared" si="1"/>
         <v>1114</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="20">
         <v>0.30902777777777779</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="25">
         <v>0.3125</v>
       </c>
       <c r="H5" t="str">
@@ -1238,26 +1330,26 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="22">
+      <c r="A6" s="17">
         <v>1</v>
       </c>
       <c r="B6">
         <v>11</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="17">
         <v>5</v>
       </c>
       <c r="D6" s="9" t="str">
         <f>""&amp;A6&amp;""&amp;B6&amp;""&amp;C6&amp;""</f>
         <v>1115</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="20">
         <v>0.3298611111111111</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="26">
         <v>0</v>
       </c>
       <c r="H6" t="str">
@@ -1266,13 +1358,13 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="22">
+      <c r="A7" s="17">
         <v>1</v>
       </c>
       <c r="B7">
         <v>23</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="17">
         <v>1</v>
       </c>
       <c r="D7" s="10" t="str">
@@ -1282,10 +1374,10 @@
       <c r="E7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="21">
         <v>0.3298611111111111</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="27">
         <v>0</v>
       </c>
       <c r="H7" t="str">
@@ -1294,26 +1386,26 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8" s="17">
         <v>1</v>
       </c>
       <c r="B8">
         <v>23</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="17">
         <v>2</v>
       </c>
       <c r="D8" s="10" t="str">
         <f t="shared" ref="D8:D71" si="2">""&amp;A8&amp;""&amp;B8&amp;""&amp;C8&amp;""</f>
         <v>1232</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="20">
         <v>0.30902777777777779</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="25">
         <v>0.3125</v>
       </c>
       <c r="H8" t="str">
@@ -1322,26 +1414,26 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="22">
+      <c r="A9" s="17">
         <v>1</v>
       </c>
       <c r="B9">
         <v>23</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="17">
         <v>3</v>
       </c>
       <c r="D9" s="10" t="str">
         <f t="shared" si="2"/>
         <v>1233</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="20">
         <v>0.28819444444444442</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="25">
         <v>0.29166666666666669</v>
       </c>
       <c r="H9" t="str">
@@ -1350,26 +1442,26 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="22">
+      <c r="A10" s="17">
         <v>1</v>
       </c>
       <c r="B10">
         <v>23</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="17">
         <v>4</v>
       </c>
       <c r="D10" s="10" t="str">
         <f t="shared" si="2"/>
         <v>1234</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="20">
         <v>0.2673611111111111</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="25">
         <v>0.27083333333333331</v>
       </c>
       <c r="H10" t="str">
@@ -1378,26 +1470,26 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="22">
+      <c r="A11" s="17">
         <v>1</v>
       </c>
       <c r="B11">
         <v>23</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="17">
         <v>5</v>
       </c>
       <c r="D11" s="11" t="str">
         <f t="shared" si="2"/>
         <v>1235</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="27">
-        <v>0</v>
-      </c>
-      <c r="G11" s="35">
+      <c r="F11" s="22">
+        <v>0</v>
+      </c>
+      <c r="G11" s="28">
         <v>0.25</v>
       </c>
       <c r="H11" t="str">
@@ -1406,26 +1498,26 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="22">
+      <c r="A12" s="17">
         <v>2</v>
       </c>
       <c r="B12">
         <v>33</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="17">
         <v>1</v>
       </c>
-      <c r="D12" s="39" t="str">
+      <c r="D12" s="32" t="str">
         <f t="shared" si="2"/>
         <v>2331</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="28">
-        <v>0</v>
-      </c>
-      <c r="G12" s="29">
+      <c r="F12" s="19">
+        <v>0</v>
+      </c>
+      <c r="G12" s="20">
         <v>0.33333333333333331</v>
       </c>
       <c r="H12" t="str">
@@ -1434,26 +1526,26 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="22">
+      <c r="A13" s="17">
         <v>2</v>
       </c>
       <c r="B13">
         <v>33</v>
       </c>
-      <c r="C13" s="40">
+      <c r="C13" s="17">
         <v>2</v>
       </c>
-      <c r="D13" s="39" t="str">
+      <c r="D13" s="32" t="str">
         <f t="shared" si="2"/>
         <v>2332</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="20">
         <v>0.35069444444444442</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="20">
         <v>0.35416666666666669</v>
       </c>
       <c r="H13" t="str">
@@ -1462,26 +1554,26 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="A14" s="17">
         <v>2</v>
       </c>
       <c r="B14">
         <v>33</v>
       </c>
-      <c r="C14" s="40">
+      <c r="C14" s="17">
         <v>3</v>
       </c>
-      <c r="D14" s="39" t="str">
+      <c r="D14" s="32" t="str">
         <f t="shared" si="2"/>
         <v>2333</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="20">
         <v>0.37152777777777779</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="20">
         <v>0.375</v>
       </c>
       <c r="H14" t="str">
@@ -1490,26 +1582,26 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="22">
+      <c r="A15" s="17">
         <v>2</v>
       </c>
       <c r="B15">
         <v>33</v>
       </c>
-      <c r="C15" s="40">
+      <c r="C15" s="17">
         <v>4</v>
       </c>
-      <c r="D15" s="39" t="str">
+      <c r="D15" s="32" t="str">
         <f t="shared" si="2"/>
         <v>2334</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="20">
         <v>0.3923611111111111</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="20">
         <v>0.39583333333333331</v>
       </c>
       <c r="H15" t="str">
@@ -1518,26 +1610,26 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="22">
+      <c r="A16" s="17">
         <v>2</v>
       </c>
       <c r="B16">
         <v>33</v>
       </c>
-      <c r="C16" s="40">
+      <c r="C16" s="17">
         <v>5</v>
       </c>
-      <c r="D16" s="39" t="str">
+      <c r="D16" s="32" t="str">
         <f t="shared" si="2"/>
         <v>2335</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="20">
         <v>0.41319444444444442</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="19">
         <v>0</v>
       </c>
       <c r="H16" t="str">
@@ -1546,26 +1638,26 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
+      <c r="A17" s="17">
         <v>2</v>
       </c>
       <c r="B17">
         <v>41</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="17">
         <v>1</v>
       </c>
-      <c r="D17" s="38" t="str">
+      <c r="D17" s="31" t="str">
         <f t="shared" si="2"/>
         <v>2411</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="21">
         <v>0.41319444444444442</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="29">
         <v>0</v>
       </c>
       <c r="H17" t="str">
@@ -1574,26 +1666,26 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="22">
+      <c r="A18" s="17">
         <v>2</v>
       </c>
       <c r="B18">
         <v>41</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="17">
         <v>2</v>
       </c>
-      <c r="D18" s="38" t="str">
+      <c r="D18" s="31" t="str">
         <f t="shared" si="2"/>
         <v>2412</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="20">
         <v>0.3923611111111111</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="20">
         <v>0.39583333333333331</v>
       </c>
       <c r="H18" t="str">
@@ -1602,26 +1694,26 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="22">
+      <c r="A19" s="17">
         <v>2</v>
       </c>
       <c r="B19">
         <v>41</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="17">
         <v>3</v>
       </c>
-      <c r="D19" s="38" t="str">
+      <c r="D19" s="31" t="str">
         <f t="shared" si="2"/>
         <v>2413</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="20">
         <v>0.37152777777777779</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="20">
         <v>0.375</v>
       </c>
       <c r="H19" t="str">
@@ -1630,26 +1722,26 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="22">
+      <c r="A20" s="17">
         <v>2</v>
       </c>
       <c r="B20">
         <v>41</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="17">
         <v>4</v>
       </c>
-      <c r="D20" s="38" t="str">
+      <c r="D20" s="31" t="str">
         <f t="shared" si="2"/>
         <v>2414</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="20">
         <v>0.35069444444444442</v>
       </c>
-      <c r="G20" s="29">
+      <c r="G20" s="20">
         <v>0.35416666666666669</v>
       </c>
       <c r="H20" t="str">
@@ -1658,26 +1750,26 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="22">
+      <c r="A21" s="17">
         <v>2</v>
       </c>
       <c r="B21">
         <v>41</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="17">
         <v>5</v>
       </c>
-      <c r="D21" s="38" t="str">
+      <c r="D21" s="31" t="str">
         <f t="shared" si="2"/>
         <v>2415</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="28">
-        <v>0</v>
-      </c>
-      <c r="G21" s="29">
+      <c r="F21" s="19">
+        <v>0</v>
+      </c>
+      <c r="G21" s="20">
         <v>0.33333333333333331</v>
       </c>
       <c r="H21" t="str">
@@ -1686,13 +1778,13 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="22">
+      <c r="A22" s="17">
         <v>3</v>
       </c>
       <c r="B22">
         <v>11</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="17">
         <v>1</v>
       </c>
       <c r="D22" s="12" t="str">
@@ -1702,10 +1794,10 @@
       <c r="E22" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="30">
-        <v>0</v>
-      </c>
-      <c r="G22" s="31">
+      <c r="F22" s="23">
+        <v>0</v>
+      </c>
+      <c r="G22" s="24">
         <v>0.41666666666666669</v>
       </c>
       <c r="H22" t="str">
@@ -1714,26 +1806,26 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="22">
+      <c r="A23" s="17">
         <v>3</v>
       </c>
       <c r="B23">
         <v>11</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="17">
         <v>2</v>
       </c>
       <c r="D23" s="9" t="str">
         <f t="shared" si="2"/>
         <v>3112</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="20">
         <v>0.43402777777777779</v>
       </c>
-      <c r="G23" s="32">
+      <c r="G23" s="25">
         <v>0.4375</v>
       </c>
       <c r="H23" t="str">
@@ -1742,26 +1834,26 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="22">
+      <c r="A24" s="17">
         <v>3</v>
       </c>
       <c r="B24">
         <v>11</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="17">
         <v>3</v>
       </c>
       <c r="D24" s="9" t="str">
         <f t="shared" si="2"/>
         <v>3113</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="20">
         <v>0.4548611111111111</v>
       </c>
-      <c r="G24" s="32">
+      <c r="G24" s="25">
         <v>0.45833333333333331</v>
       </c>
       <c r="H24" t="str">
@@ -1770,26 +1862,26 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="22">
+      <c r="A25" s="17">
         <v>3</v>
       </c>
       <c r="B25">
         <v>11</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="17">
         <v>4</v>
       </c>
       <c r="D25" s="9" t="str">
         <f t="shared" si="2"/>
         <v>3114</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="20">
         <v>0.47569444444444442</v>
       </c>
-      <c r="G25" s="32">
+      <c r="G25" s="25">
         <v>0.47916666666666669</v>
       </c>
       <c r="H25" t="str">
@@ -1798,26 +1890,26 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="22">
+      <c r="A26" s="17">
         <v>3</v>
       </c>
       <c r="B26">
         <v>11</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="17">
         <v>5</v>
       </c>
       <c r="D26" s="9" t="str">
         <f t="shared" si="2"/>
         <v>3115</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="20">
         <v>0.49652777777777779</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26" s="26">
         <v>0</v>
       </c>
       <c r="H26" t="str">
@@ -1826,13 +1918,13 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="22">
+      <c r="A27" s="17">
         <v>3</v>
       </c>
       <c r="B27">
         <v>23</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="17">
         <v>1</v>
       </c>
       <c r="D27" s="10" t="str">
@@ -1842,10 +1934,10 @@
       <c r="E27" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="21">
         <v>0.49652777777777779</v>
       </c>
-      <c r="G27" s="34">
+      <c r="G27" s="27">
         <v>0</v>
       </c>
       <c r="H27" t="str">
@@ -1854,26 +1946,26 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="22">
+      <c r="A28" s="17">
         <v>3</v>
       </c>
       <c r="B28">
         <v>23</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="17">
         <v>2</v>
       </c>
       <c r="D28" s="10" t="str">
         <f t="shared" si="2"/>
         <v>3232</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="20">
         <v>0.47569444444444442</v>
       </c>
-      <c r="G28" s="32">
+      <c r="G28" s="25">
         <v>0.47916666666666669</v>
       </c>
       <c r="H28" t="str">
@@ -1882,26 +1974,26 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="22">
+      <c r="A29" s="17">
         <v>3</v>
       </c>
       <c r="B29">
         <v>23</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="17">
         <v>3</v>
       </c>
       <c r="D29" s="10" t="str">
         <f t="shared" si="2"/>
         <v>3233</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="20">
         <v>0.4548611111111111</v>
       </c>
-      <c r="G29" s="32">
+      <c r="G29" s="25">
         <v>0.45833333333333331</v>
       </c>
       <c r="H29" t="str">
@@ -1910,26 +2002,26 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="22">
+      <c r="A30" s="17">
         <v>3</v>
       </c>
       <c r="B30">
         <v>23</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="17">
         <v>4</v>
       </c>
       <c r="D30" s="10" t="str">
         <f t="shared" si="2"/>
         <v>3234</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F30" s="20">
         <v>0.43402777777777779</v>
       </c>
-      <c r="G30" s="32">
+      <c r="G30" s="25">
         <v>0.4375</v>
       </c>
       <c r="H30" t="str">
@@ -1938,26 +2030,26 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="22">
+      <c r="A31" s="17">
         <v>3</v>
       </c>
       <c r="B31">
         <v>23</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31" s="17">
         <v>5</v>
       </c>
       <c r="D31" s="11" t="str">
         <f t="shared" si="2"/>
         <v>3235</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="E31" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="27">
-        <v>0</v>
-      </c>
-      <c r="G31" s="35">
+      <c r="F31" s="22">
+        <v>0</v>
+      </c>
+      <c r="G31" s="28">
         <v>0.41666666666666669</v>
       </c>
       <c r="H31" t="str">
@@ -1966,26 +2058,26 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="22">
+      <c r="A32" s="17">
         <v>4</v>
       </c>
       <c r="B32">
         <v>33</v>
       </c>
-      <c r="C32" s="40">
+      <c r="C32" s="17">
         <v>1</v>
       </c>
-      <c r="D32" s="39" t="str">
+      <c r="D32" s="32" t="str">
         <f t="shared" si="2"/>
         <v>4331</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="28">
-        <v>0</v>
-      </c>
-      <c r="G32" s="29">
+      <c r="F32" s="19">
+        <v>0</v>
+      </c>
+      <c r="G32" s="20">
         <v>0.5</v>
       </c>
       <c r="H32" t="str">
@@ -1994,26 +2086,26 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="22">
+      <c r="A33" s="17">
         <v>4</v>
       </c>
       <c r="B33">
         <v>33</v>
       </c>
-      <c r="C33" s="40">
+      <c r="C33" s="17">
         <v>2</v>
       </c>
-      <c r="D33" s="39" t="str">
+      <c r="D33" s="32" t="str">
         <f t="shared" si="2"/>
         <v>4332</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F33" s="29">
+      <c r="F33" s="20">
         <v>0.51736111111111116</v>
       </c>
-      <c r="G33" s="29">
+      <c r="G33" s="20">
         <v>0.52083333333333337</v>
       </c>
       <c r="H33" t="str">
@@ -2022,26 +2114,26 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="22">
+      <c r="A34" s="17">
         <v>4</v>
       </c>
       <c r="B34">
         <v>33</v>
       </c>
-      <c r="C34" s="40">
+      <c r="C34" s="17">
         <v>3</v>
       </c>
-      <c r="D34" s="39" t="str">
+      <c r="D34" s="32" t="str">
         <f t="shared" si="2"/>
         <v>4333</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="29">
+      <c r="F34" s="20">
         <v>0.53819444444444442</v>
       </c>
-      <c r="G34" s="29">
+      <c r="G34" s="20">
         <v>0.54166666666666663</v>
       </c>
       <c r="H34" t="str">
@@ -2050,26 +2142,26 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="22">
+      <c r="A35" s="17">
         <v>4</v>
       </c>
       <c r="B35">
         <v>33</v>
       </c>
-      <c r="C35" s="40">
+      <c r="C35" s="17">
         <v>4</v>
       </c>
-      <c r="D35" s="39" t="str">
+      <c r="D35" s="32" t="str">
         <f t="shared" si="2"/>
         <v>4334</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="29">
+      <c r="F35" s="20">
         <v>0.55902777777777779</v>
       </c>
-      <c r="G35" s="29">
+      <c r="G35" s="20">
         <v>0.5625</v>
       </c>
       <c r="H35" t="str">
@@ -2078,26 +2170,26 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="22">
+      <c r="A36" s="17">
         <v>4</v>
       </c>
       <c r="B36">
         <v>33</v>
       </c>
-      <c r="C36" s="40">
+      <c r="C36" s="17">
         <v>5</v>
       </c>
-      <c r="D36" s="39" t="str">
+      <c r="D36" s="32" t="str">
         <f t="shared" si="2"/>
         <v>4335</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="29">
+      <c r="F36" s="20">
         <v>0.57986111111111116</v>
       </c>
-      <c r="G36" s="28">
+      <c r="G36" s="19">
         <v>0</v>
       </c>
       <c r="H36" t="str">
@@ -2106,26 +2198,26 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="22">
+      <c r="A37" s="17">
         <v>4</v>
       </c>
       <c r="B37">
         <v>41</v>
       </c>
-      <c r="C37" s="22">
+      <c r="C37" s="17">
         <v>1</v>
       </c>
-      <c r="D37" s="38" t="str">
+      <c r="D37" s="31" t="str">
         <f t="shared" si="2"/>
         <v>4411</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F37" s="26">
+      <c r="F37" s="21">
         <v>0.57986111111111116</v>
       </c>
-      <c r="G37" s="36">
+      <c r="G37" s="29">
         <v>0</v>
       </c>
       <c r="H37" t="str">
@@ -2134,26 +2226,26 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="22">
+      <c r="A38" s="17">
         <v>4</v>
       </c>
       <c r="B38">
         <v>41</v>
       </c>
-      <c r="C38" s="22">
+      <c r="C38" s="17">
         <v>2</v>
       </c>
-      <c r="D38" s="38" t="str">
+      <c r="D38" s="31" t="str">
         <f t="shared" si="2"/>
         <v>4412</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="29">
+      <c r="F38" s="20">
         <v>0.55902777777777779</v>
       </c>
-      <c r="G38" s="29">
+      <c r="G38" s="20">
         <v>0.5625</v>
       </c>
       <c r="H38" t="str">
@@ -2162,26 +2254,26 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="22">
+      <c r="A39" s="17">
         <v>4</v>
       </c>
       <c r="B39">
         <v>41</v>
       </c>
-      <c r="C39" s="22">
+      <c r="C39" s="17">
         <v>3</v>
       </c>
-      <c r="D39" s="38" t="str">
+      <c r="D39" s="31" t="str">
         <f t="shared" si="2"/>
         <v>4413</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="29">
+      <c r="F39" s="20">
         <v>0.53819444444444442</v>
       </c>
-      <c r="G39" s="29">
+      <c r="G39" s="20">
         <v>0.54166666666666663</v>
       </c>
       <c r="H39" t="str">
@@ -2190,26 +2282,26 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="22">
+      <c r="A40" s="17">
         <v>4</v>
       </c>
       <c r="B40">
         <v>41</v>
       </c>
-      <c r="C40" s="22">
+      <c r="C40" s="17">
         <v>4</v>
       </c>
-      <c r="D40" s="38" t="str">
+      <c r="D40" s="31" t="str">
         <f t="shared" si="2"/>
         <v>4414</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F40" s="29">
+      <c r="F40" s="20">
         <v>0.51736111111111116</v>
       </c>
-      <c r="G40" s="29">
+      <c r="G40" s="20">
         <v>0.52083333333333337</v>
       </c>
       <c r="H40" t="str">
@@ -2218,26 +2310,26 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="22">
+      <c r="A41" s="17">
         <v>4</v>
       </c>
       <c r="B41">
         <v>41</v>
       </c>
-      <c r="C41" s="22">
+      <c r="C41" s="17">
         <v>5</v>
       </c>
-      <c r="D41" s="38" t="str">
+      <c r="D41" s="31" t="str">
         <f t="shared" si="2"/>
         <v>4415</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F41" s="28">
-        <v>0</v>
-      </c>
-      <c r="G41" s="29">
+      <c r="F41" s="19">
+        <v>0</v>
+      </c>
+      <c r="G41" s="20">
         <v>0.5</v>
       </c>
       <c r="H41" t="str">
@@ -2246,13 +2338,13 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="22">
+      <c r="A42" s="17">
         <v>5</v>
       </c>
       <c r="B42">
         <v>12</v>
       </c>
-      <c r="C42" s="22">
+      <c r="C42" s="17">
         <v>1</v>
       </c>
       <c r="D42" s="12" t="str">
@@ -2262,10 +2354,10 @@
       <c r="E42" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F42" s="30">
-        <v>0</v>
-      </c>
-      <c r="G42" s="31">
+      <c r="F42" s="23">
+        <v>0</v>
+      </c>
+      <c r="G42" s="24">
         <v>0.58333333333333337</v>
       </c>
       <c r="H42" t="str">
@@ -2274,26 +2366,26 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="22">
+      <c r="A43" s="17">
         <v>5</v>
       </c>
       <c r="B43">
         <v>12</v>
       </c>
-      <c r="C43" s="22">
+      <c r="C43" s="17">
         <v>2</v>
       </c>
       <c r="D43" s="9" t="str">
         <f t="shared" si="2"/>
         <v>5122</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F43" s="25">
+      <c r="F43" s="20">
         <v>0.60069444444444442</v>
       </c>
-      <c r="G43" s="32">
+      <c r="G43" s="25">
         <v>0.60416666666666663</v>
       </c>
       <c r="H43" t="str">
@@ -2302,26 +2394,26 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="22">
+      <c r="A44" s="17">
         <v>5</v>
       </c>
       <c r="B44">
         <v>12</v>
       </c>
-      <c r="C44" s="22">
+      <c r="C44" s="17">
         <v>3</v>
       </c>
       <c r="D44" s="9" t="str">
         <f t="shared" si="2"/>
         <v>5123</v>
       </c>
-      <c r="E44" s="17" t="s">
+      <c r="E44" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F44" s="25">
+      <c r="F44" s="20">
         <v>0.62152777777777779</v>
       </c>
-      <c r="G44" s="32">
+      <c r="G44" s="25">
         <v>0.625</v>
       </c>
       <c r="H44" t="str">
@@ -2330,26 +2422,26 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="22">
+      <c r="A45" s="17">
         <v>5</v>
       </c>
       <c r="B45">
         <v>12</v>
       </c>
-      <c r="C45" s="22">
+      <c r="C45" s="17">
         <v>4</v>
       </c>
       <c r="D45" s="9" t="str">
         <f t="shared" si="2"/>
         <v>5124</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F45" s="25">
+      <c r="F45" s="20">
         <v>0.64236111111111116</v>
       </c>
-      <c r="G45" s="32">
+      <c r="G45" s="25">
         <v>0.64583333333333337</v>
       </c>
       <c r="H45" t="str">
@@ -2358,26 +2450,26 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="22">
+      <c r="A46" s="17">
         <v>5</v>
       </c>
       <c r="B46">
         <v>12</v>
       </c>
-      <c r="C46" s="22">
+      <c r="C46" s="17">
         <v>5</v>
       </c>
       <c r="D46" s="9" t="str">
         <f t="shared" si="2"/>
         <v>5125</v>
       </c>
-      <c r="E46" s="19" t="s">
+      <c r="E46" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="25">
+      <c r="F46" s="20">
         <v>0.66319444444444442</v>
       </c>
-      <c r="G46" s="33">
+      <c r="G46" s="26">
         <v>0</v>
       </c>
       <c r="H46" t="str">
@@ -2386,13 +2478,13 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="22">
+      <c r="A47" s="17">
         <v>5</v>
       </c>
       <c r="B47">
         <v>24</v>
       </c>
-      <c r="C47" s="22">
+      <c r="C47" s="17">
         <v>1</v>
       </c>
       <c r="D47" s="10" t="str">
@@ -2402,10 +2494,10 @@
       <c r="E47" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F47" s="26">
+      <c r="F47" s="21">
         <v>0.66319444444444442</v>
       </c>
-      <c r="G47" s="34">
+      <c r="G47" s="27">
         <v>0</v>
       </c>
       <c r="H47" t="str">
@@ -2414,26 +2506,26 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="22">
+      <c r="A48" s="17">
         <v>5</v>
       </c>
       <c r="B48">
         <v>24</v>
       </c>
-      <c r="C48" s="22">
+      <c r="C48" s="17">
         <v>2</v>
       </c>
       <c r="D48" s="10" t="str">
         <f t="shared" si="2"/>
         <v>5242</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F48" s="25">
+      <c r="F48" s="20">
         <v>0.64236111111111116</v>
       </c>
-      <c r="G48" s="32">
+      <c r="G48" s="25">
         <v>0.64583333333333337</v>
       </c>
       <c r="H48" t="str">
@@ -2442,26 +2534,26 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="22">
+      <c r="A49" s="17">
         <v>5</v>
       </c>
       <c r="B49">
         <v>24</v>
       </c>
-      <c r="C49" s="22">
+      <c r="C49" s="17">
         <v>3</v>
       </c>
       <c r="D49" s="10" t="str">
         <f t="shared" si="2"/>
         <v>5243</v>
       </c>
-      <c r="E49" s="17" t="s">
+      <c r="E49" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F49" s="25">
+      <c r="F49" s="20">
         <v>0.62152777777777779</v>
       </c>
-      <c r="G49" s="32">
+      <c r="G49" s="25">
         <v>0.625</v>
       </c>
       <c r="H49" t="str">
@@ -2470,26 +2562,26 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="22">
+      <c r="A50" s="17">
         <v>5</v>
       </c>
       <c r="B50">
         <v>24</v>
       </c>
-      <c r="C50" s="22">
+      <c r="C50" s="17">
         <v>4</v>
       </c>
       <c r="D50" s="10" t="str">
         <f t="shared" si="2"/>
         <v>5244</v>
       </c>
-      <c r="E50" s="18" t="s">
+      <c r="E50" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F50" s="25">
+      <c r="F50" s="20">
         <v>0.60069444444444442</v>
       </c>
-      <c r="G50" s="32">
+      <c r="G50" s="25">
         <v>0.60416666666666663</v>
       </c>
       <c r="H50" t="str">
@@ -2498,26 +2590,26 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="22">
+      <c r="A51" s="17">
         <v>5</v>
       </c>
       <c r="B51">
         <v>24</v>
       </c>
-      <c r="C51" s="22">
+      <c r="C51" s="17">
         <v>5</v>
       </c>
       <c r="D51" s="11" t="str">
         <f t="shared" si="2"/>
         <v>5245</v>
       </c>
-      <c r="E51" s="21" t="s">
+      <c r="E51" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F51" s="27">
-        <v>0</v>
-      </c>
-      <c r="G51" s="35">
+      <c r="F51" s="22">
+        <v>0</v>
+      </c>
+      <c r="G51" s="28">
         <v>0.58333333333333337</v>
       </c>
       <c r="H51" t="str">
@@ -2526,26 +2618,26 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="22">
+      <c r="A52" s="17">
         <v>6</v>
       </c>
       <c r="B52">
         <v>34</v>
       </c>
-      <c r="C52" s="40">
+      <c r="C52" s="17">
         <v>1</v>
       </c>
-      <c r="D52" s="39" t="str">
+      <c r="D52" s="32" t="str">
         <f t="shared" si="2"/>
         <v>6341</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F52" s="28">
-        <v>0</v>
-      </c>
-      <c r="G52" s="29">
+      <c r="F52" s="19">
+        <v>0</v>
+      </c>
+      <c r="G52" s="20">
         <v>0.66666666666666663</v>
       </c>
       <c r="H52" t="str">
@@ -2554,26 +2646,26 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="22">
+      <c r="A53" s="17">
         <v>6</v>
       </c>
       <c r="B53">
         <v>34</v>
       </c>
-      <c r="C53" s="40">
+      <c r="C53" s="17">
         <v>2</v>
       </c>
-      <c r="D53" s="39" t="str">
+      <c r="D53" s="32" t="str">
         <f t="shared" si="2"/>
         <v>6342</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F53" s="29">
+      <c r="F53" s="20">
         <v>0.68402777777777779</v>
       </c>
-      <c r="G53" s="29">
+      <c r="G53" s="20">
         <v>0.6875</v>
       </c>
       <c r="H53" t="str">
@@ -2582,26 +2674,26 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="22">
+      <c r="A54" s="17">
         <v>6</v>
       </c>
       <c r="B54">
         <v>34</v>
       </c>
-      <c r="C54" s="40">
+      <c r="C54" s="17">
         <v>3</v>
       </c>
-      <c r="D54" s="39" t="str">
+      <c r="D54" s="32" t="str">
         <f t="shared" si="2"/>
         <v>6343</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F54" s="29">
+      <c r="F54" s="20">
         <v>0.70486111111111116</v>
       </c>
-      <c r="G54" s="29">
+      <c r="G54" s="20">
         <v>0.70833333333333337</v>
       </c>
       <c r="H54" t="str">
@@ -2610,26 +2702,26 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="22">
+      <c r="A55" s="17">
         <v>6</v>
       </c>
       <c r="B55">
         <v>34</v>
       </c>
-      <c r="C55" s="40">
+      <c r="C55" s="17">
         <v>4</v>
       </c>
-      <c r="D55" s="39" t="str">
+      <c r="D55" s="32" t="str">
         <f t="shared" si="2"/>
         <v>6344</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F55" s="29">
+      <c r="F55" s="20">
         <v>0.72569444444444442</v>
       </c>
-      <c r="G55" s="29">
+      <c r="G55" s="20">
         <v>0.72916666666666663</v>
       </c>
       <c r="H55" t="str">
@@ -2638,26 +2730,26 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="22">
+      <c r="A56" s="17">
         <v>6</v>
       </c>
       <c r="B56">
         <v>34</v>
       </c>
-      <c r="C56" s="40">
+      <c r="C56" s="17">
         <v>5</v>
       </c>
-      <c r="D56" s="39" t="str">
+      <c r="D56" s="32" t="str">
         <f t="shared" si="2"/>
         <v>6345</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F56" s="29">
+      <c r="F56" s="20">
         <v>0.74652777777777779</v>
       </c>
-      <c r="G56" s="28">
+      <c r="G56" s="19">
         <v>0</v>
       </c>
       <c r="H56" t="str">
@@ -2666,26 +2758,26 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="22">
+      <c r="A57" s="17">
         <v>6</v>
       </c>
       <c r="B57">
         <v>42</v>
       </c>
-      <c r="C57" s="22">
+      <c r="C57" s="17">
         <v>1</v>
       </c>
-      <c r="D57" s="38" t="str">
+      <c r="D57" s="31" t="str">
         <f t="shared" si="2"/>
         <v>6421</v>
       </c>
       <c r="E57" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F57" s="26">
+      <c r="F57" s="21">
         <v>0.74652777777777779</v>
       </c>
-      <c r="G57" s="36">
+      <c r="G57" s="29">
         <v>0</v>
       </c>
       <c r="H57" t="str">
@@ -2694,26 +2786,26 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="22">
+      <c r="A58" s="17">
         <v>6</v>
       </c>
       <c r="B58">
         <v>42</v>
       </c>
-      <c r="C58" s="22">
+      <c r="C58" s="17">
         <v>2</v>
       </c>
-      <c r="D58" s="38" t="str">
+      <c r="D58" s="31" t="str">
         <f t="shared" si="2"/>
         <v>6422</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F58" s="29">
+      <c r="F58" s="20">
         <v>0.72569444444444442</v>
       </c>
-      <c r="G58" s="29">
+      <c r="G58" s="20">
         <v>0.72916666666666663</v>
       </c>
       <c r="H58" t="str">
@@ -2722,26 +2814,26 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="22">
+      <c r="A59" s="17">
         <v>6</v>
       </c>
       <c r="B59">
         <v>42</v>
       </c>
-      <c r="C59" s="22">
+      <c r="C59" s="17">
         <v>3</v>
       </c>
-      <c r="D59" s="38" t="str">
+      <c r="D59" s="31" t="str">
         <f t="shared" si="2"/>
         <v>6423</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F59" s="29">
+      <c r="F59" s="20">
         <v>0.70486111111111116</v>
       </c>
-      <c r="G59" s="29">
+      <c r="G59" s="20">
         <v>0.70833333333333337</v>
       </c>
       <c r="H59" t="str">
@@ -2750,26 +2842,26 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="22">
+      <c r="A60" s="17">
         <v>6</v>
       </c>
       <c r="B60">
         <v>42</v>
       </c>
-      <c r="C60" s="22">
+      <c r="C60" s="17">
         <v>4</v>
       </c>
-      <c r="D60" s="38" t="str">
+      <c r="D60" s="31" t="str">
         <f t="shared" si="2"/>
         <v>6424</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F60" s="29">
+      <c r="F60" s="20">
         <v>0.68402777777777779</v>
       </c>
-      <c r="G60" s="29">
+      <c r="G60" s="20">
         <v>0.6875</v>
       </c>
       <c r="H60" t="str">
@@ -2778,26 +2870,26 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="22">
+      <c r="A61" s="17">
         <v>6</v>
       </c>
       <c r="B61">
         <v>42</v>
       </c>
-      <c r="C61" s="22">
+      <c r="C61" s="17">
         <v>5</v>
       </c>
-      <c r="D61" s="38" t="str">
+      <c r="D61" s="31" t="str">
         <f t="shared" si="2"/>
         <v>6425</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F61" s="28">
-        <v>0</v>
-      </c>
-      <c r="G61" s="29">
+      <c r="F61" s="19">
+        <v>0</v>
+      </c>
+      <c r="G61" s="20">
         <v>0.66666666666666663</v>
       </c>
       <c r="H61" t="str">
@@ -2806,13 +2898,13 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="22">
+      <c r="A62" s="17">
         <v>7</v>
       </c>
       <c r="B62">
         <v>12</v>
       </c>
-      <c r="C62" s="22">
+      <c r="C62" s="17">
         <v>1</v>
       </c>
       <c r="D62" s="12" t="str">
@@ -2822,10 +2914,10 @@
       <c r="E62" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F62" s="30">
-        <v>0</v>
-      </c>
-      <c r="G62" s="31">
+      <c r="F62" s="23">
+        <v>0</v>
+      </c>
+      <c r="G62" s="24">
         <v>0.75</v>
       </c>
       <c r="H62" t="str">
@@ -2834,26 +2926,26 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="22">
+      <c r="A63" s="17">
         <v>7</v>
       </c>
       <c r="B63">
         <v>12</v>
       </c>
-      <c r="C63" s="22">
+      <c r="C63" s="17">
         <v>2</v>
       </c>
       <c r="D63" s="9" t="str">
         <f t="shared" si="2"/>
         <v>7122</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F63" s="25">
+      <c r="F63" s="20">
         <v>0.76736111111111116</v>
       </c>
-      <c r="G63" s="32">
+      <c r="G63" s="25">
         <v>0.77083333333333337</v>
       </c>
       <c r="H63" t="str">
@@ -2862,26 +2954,26 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="22">
+      <c r="A64" s="17">
         <v>7</v>
       </c>
       <c r="B64">
         <v>12</v>
       </c>
-      <c r="C64" s="22">
+      <c r="C64" s="17">
         <v>3</v>
       </c>
       <c r="D64" s="9" t="str">
         <f t="shared" si="2"/>
         <v>7123</v>
       </c>
-      <c r="E64" s="17" t="s">
+      <c r="E64" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F64" s="25">
+      <c r="F64" s="20">
         <v>0.78819444444444442</v>
       </c>
-      <c r="G64" s="32">
+      <c r="G64" s="25">
         <v>0.79166666666666663</v>
       </c>
       <c r="H64" t="str">
@@ -2890,26 +2982,26 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="22">
+      <c r="A65" s="17">
         <v>7</v>
       </c>
       <c r="B65">
         <v>12</v>
       </c>
-      <c r="C65" s="22">
+      <c r="C65" s="17">
         <v>4</v>
       </c>
       <c r="D65" s="9" t="str">
         <f t="shared" si="2"/>
         <v>7124</v>
       </c>
-      <c r="E65" s="18" t="s">
+      <c r="E65" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F65" s="25">
+      <c r="F65" s="20">
         <v>0.80902777777777779</v>
       </c>
-      <c r="G65" s="32">
+      <c r="G65" s="25">
         <v>0.8125</v>
       </c>
       <c r="H65" t="str">
@@ -2918,26 +3010,26 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="22">
+      <c r="A66" s="17">
         <v>7</v>
       </c>
       <c r="B66">
         <v>12</v>
       </c>
-      <c r="C66" s="22">
+      <c r="C66" s="17">
         <v>5</v>
       </c>
       <c r="D66" s="9" t="str">
         <f t="shared" si="2"/>
         <v>7125</v>
       </c>
-      <c r="E66" s="19" t="s">
+      <c r="E66" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F66" s="25">
+      <c r="F66" s="20">
         <v>0.82986111111111116</v>
       </c>
-      <c r="G66" s="33">
+      <c r="G66" s="26">
         <v>0</v>
       </c>
       <c r="H66" t="str">
@@ -2946,13 +3038,13 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="22">
+      <c r="A67" s="17">
         <v>7</v>
       </c>
       <c r="B67">
         <v>24</v>
       </c>
-      <c r="C67" s="22">
+      <c r="C67" s="17">
         <v>1</v>
       </c>
       <c r="D67" s="10" t="str">
@@ -2962,10 +3054,10 @@
       <c r="E67" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F67" s="26">
+      <c r="F67" s="21">
         <v>0.82986111111111116</v>
       </c>
-      <c r="G67" s="34">
+      <c r="G67" s="27">
         <v>0</v>
       </c>
       <c r="H67" t="str">
@@ -2974,26 +3066,26 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="22">
+      <c r="A68" s="17">
         <v>7</v>
       </c>
       <c r="B68">
         <v>24</v>
       </c>
-      <c r="C68" s="22">
+      <c r="C68" s="17">
         <v>2</v>
       </c>
       <c r="D68" s="10" t="str">
         <f t="shared" si="2"/>
         <v>7242</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F68" s="25">
+      <c r="F68" s="20">
         <v>0.80902777777777779</v>
       </c>
-      <c r="G68" s="32">
+      <c r="G68" s="25">
         <v>0.8125</v>
       </c>
       <c r="H68" t="str">
@@ -3002,26 +3094,26 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="22">
+      <c r="A69" s="17">
         <v>7</v>
       </c>
       <c r="B69">
         <v>24</v>
       </c>
-      <c r="C69" s="22">
+      <c r="C69" s="17">
         <v>3</v>
       </c>
       <c r="D69" s="10" t="str">
         <f t="shared" si="2"/>
         <v>7243</v>
       </c>
-      <c r="E69" s="17" t="s">
+      <c r="E69" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F69" s="25">
+      <c r="F69" s="20">
         <v>0.78819444444444442</v>
       </c>
-      <c r="G69" s="32">
+      <c r="G69" s="25">
         <v>0.79166666666666663</v>
       </c>
       <c r="H69" t="str">
@@ -3030,26 +3122,26 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="22">
+      <c r="A70" s="17">
         <v>7</v>
       </c>
       <c r="B70">
         <v>24</v>
       </c>
-      <c r="C70" s="22">
+      <c r="C70" s="17">
         <v>4</v>
       </c>
       <c r="D70" s="10" t="str">
         <f t="shared" si="2"/>
         <v>7244</v>
       </c>
-      <c r="E70" s="18" t="s">
+      <c r="E70" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F70" s="25">
+      <c r="F70" s="20">
         <v>0.76736111111111116</v>
       </c>
-      <c r="G70" s="32">
+      <c r="G70" s="25">
         <v>0.77083333333333337</v>
       </c>
       <c r="H70" t="str">
@@ -3058,26 +3150,26 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="22">
+      <c r="A71" s="17">
         <v>7</v>
       </c>
       <c r="B71">
         <v>24</v>
       </c>
-      <c r="C71" s="22">
+      <c r="C71" s="17">
         <v>5</v>
       </c>
       <c r="D71" s="11" t="str">
         <f t="shared" si="2"/>
         <v>7245</v>
       </c>
-      <c r="E71" s="21" t="s">
+      <c r="E71" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F71" s="27">
-        <v>0</v>
-      </c>
-      <c r="G71" s="35">
+      <c r="F71" s="22">
+        <v>0</v>
+      </c>
+      <c r="G71" s="28">
         <v>0.75</v>
       </c>
       <c r="H71" t="str">
@@ -3086,26 +3178,26 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="22">
+      <c r="A72" s="17">
         <v>8</v>
       </c>
       <c r="B72">
         <v>34</v>
       </c>
-      <c r="C72" s="40">
+      <c r="C72" s="17">
         <v>1</v>
       </c>
-      <c r="D72" s="39" t="str">
+      <c r="D72" s="32" t="str">
         <f t="shared" ref="D72:D81" si="4">""&amp;A72&amp;""&amp;B72&amp;""&amp;C72&amp;""</f>
         <v>8341</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F72" s="28">
-        <v>0</v>
-      </c>
-      <c r="G72" s="29">
+      <c r="F72" s="19">
+        <v>0</v>
+      </c>
+      <c r="G72" s="20">
         <v>0.83333333333333337</v>
       </c>
       <c r="H72" t="str">
@@ -3114,26 +3206,26 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="22">
+      <c r="A73" s="17">
         <v>8</v>
       </c>
       <c r="B73">
         <v>34</v>
       </c>
-      <c r="C73" s="40">
+      <c r="C73" s="17">
         <v>2</v>
       </c>
-      <c r="D73" s="39" t="str">
+      <c r="D73" s="32" t="str">
         <f t="shared" si="4"/>
         <v>8342</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F73" s="29">
+      <c r="F73" s="20">
         <v>0.85069444444444442</v>
       </c>
-      <c r="G73" s="29">
+      <c r="G73" s="20">
         <v>0.85416666666666663</v>
       </c>
       <c r="H73" t="str">
@@ -3142,26 +3234,26 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="22">
+      <c r="A74" s="17">
         <v>8</v>
       </c>
       <c r="B74">
         <v>34</v>
       </c>
-      <c r="C74" s="40">
+      <c r="C74" s="17">
         <v>3</v>
       </c>
-      <c r="D74" s="39" t="str">
+      <c r="D74" s="32" t="str">
         <f t="shared" si="4"/>
         <v>8343</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F74" s="29">
+      <c r="F74" s="20">
         <v>0.87152777777777779</v>
       </c>
-      <c r="G74" s="29">
+      <c r="G74" s="20">
         <v>0.875</v>
       </c>
       <c r="H74" t="str">
@@ -3170,26 +3262,26 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="22">
+      <c r="A75" s="17">
         <v>8</v>
       </c>
       <c r="B75">
         <v>34</v>
       </c>
-      <c r="C75" s="40">
+      <c r="C75" s="17">
         <v>4</v>
       </c>
-      <c r="D75" s="39" t="str">
+      <c r="D75" s="32" t="str">
         <f t="shared" si="4"/>
         <v>8344</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F75" s="29">
+      <c r="F75" s="20">
         <v>0.89236111111111116</v>
       </c>
-      <c r="G75" s="29">
+      <c r="G75" s="20">
         <v>0.89583333333333337</v>
       </c>
       <c r="H75" t="str">
@@ -3198,26 +3290,26 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="22">
+      <c r="A76" s="17">
         <v>8</v>
       </c>
       <c r="B76">
         <v>34</v>
       </c>
-      <c r="C76" s="40">
+      <c r="C76" s="17">
         <v>5</v>
       </c>
-      <c r="D76" s="39" t="str">
+      <c r="D76" s="32" t="str">
         <f t="shared" si="4"/>
         <v>8345</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F76" s="29">
+      <c r="F76" s="20">
         <v>0.91319444444444442</v>
       </c>
-      <c r="G76" s="28">
+      <c r="G76" s="19">
         <v>0</v>
       </c>
       <c r="H76" t="str">
@@ -3226,26 +3318,26 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="22">
+      <c r="A77" s="17">
         <v>8</v>
       </c>
       <c r="B77">
         <v>42</v>
       </c>
-      <c r="C77" s="22">
+      <c r="C77" s="17">
         <v>1</v>
       </c>
-      <c r="D77" s="38" t="str">
+      <c r="D77" s="31" t="str">
         <f t="shared" si="4"/>
         <v>8421</v>
       </c>
       <c r="E77" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F77" s="26">
+      <c r="F77" s="21">
         <v>0.91319444444444442</v>
       </c>
-      <c r="G77" s="36">
+      <c r="G77" s="29">
         <v>0</v>
       </c>
       <c r="H77" t="str">
@@ -3254,26 +3346,26 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="22">
+      <c r="A78" s="17">
         <v>8</v>
       </c>
       <c r="B78">
         <v>42</v>
       </c>
-      <c r="C78" s="22">
+      <c r="C78" s="17">
         <v>2</v>
       </c>
-      <c r="D78" s="38" t="str">
+      <c r="D78" s="31" t="str">
         <f t="shared" si="4"/>
         <v>8422</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F78" s="29">
+      <c r="F78" s="20">
         <v>0.89236111111111116</v>
       </c>
-      <c r="G78" s="29">
+      <c r="G78" s="20">
         <v>0.89583333333333337</v>
       </c>
       <c r="H78" t="str">
@@ -3282,26 +3374,26 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="22">
+      <c r="A79" s="17">
         <v>8</v>
       </c>
       <c r="B79">
         <v>42</v>
       </c>
-      <c r="C79" s="22">
+      <c r="C79" s="17">
         <v>3</v>
       </c>
-      <c r="D79" s="38" t="str">
+      <c r="D79" s="31" t="str">
         <f t="shared" si="4"/>
         <v>8423</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F79" s="29">
+      <c r="F79" s="20">
         <v>0.87152777777777779</v>
       </c>
-      <c r="G79" s="29">
+      <c r="G79" s="20">
         <v>0.875</v>
       </c>
       <c r="H79" t="str">
@@ -3310,26 +3402,26 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="22">
+      <c r="A80" s="17">
         <v>8</v>
       </c>
       <c r="B80">
         <v>42</v>
       </c>
-      <c r="C80" s="22">
+      <c r="C80" s="17">
         <v>4</v>
       </c>
-      <c r="D80" s="38" t="str">
+      <c r="D80" s="31" t="str">
         <f t="shared" si="4"/>
         <v>8424</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F80" s="29">
+      <c r="F80" s="20">
         <v>0.85069444444444442</v>
       </c>
-      <c r="G80" s="29">
+      <c r="G80" s="20">
         <v>0.85416666666666663</v>
       </c>
       <c r="H80" t="str">
@@ -3338,26 +3430,26 @@
       </c>
     </row>
     <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="22">
+      <c r="A81" s="17">
         <v>8</v>
       </c>
       <c r="B81">
         <v>42</v>
       </c>
-      <c r="C81" s="22">
+      <c r="C81" s="17">
         <v>5</v>
       </c>
       <c r="D81" s="13" t="str">
         <f t="shared" si="4"/>
         <v>8425</v>
       </c>
-      <c r="E81" s="21" t="s">
+      <c r="E81" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F81" s="27">
-        <v>0</v>
-      </c>
-      <c r="G81" s="37">
+      <c r="F81" s="22">
+        <v>0</v>
+      </c>
+      <c r="G81" s="30">
         <v>0.83333333333333337</v>
       </c>
       <c r="H81" t="str">
@@ -3372,10 +3464,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0458E9-82E9-4197-BCA9-02F1A4B2B33B}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3429,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E6" si="0">"INSERT INTO Pasażerowie VALUES ("&amp;A3&amp;", '"&amp;B3&amp;"', '"&amp;C3&amp;"', "&amp;D3&amp;");"</f>
+        <f t="shared" ref="E3:E7" si="0">"INSERT INTO Pasażerowie VALUES ("&amp;A3&amp;", '"&amp;B3&amp;"', '"&amp;C3&amp;"', "&amp;D3&amp;");"</f>
         <v>INSERT INTO Pasażerowie VALUES (2, 'Testowy', 'Pasażer', 0);</v>
       </c>
     </row>
@@ -3485,6 +3577,24 @@
       <c r="E6" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Pasażerowie VALUES (5, 'Van', 'Darkholme', 1);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Pasażerowie VALUES (6, 'Danny', 'Lee', 0);</v>
       </c>
     </row>
   </sheetData>
@@ -3494,15 +3604,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9029CCD-6017-4F33-B061-90EB2D2AD4D3}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" activeCellId="1" sqref="H12 H7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.5546875" style="41" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="33" customWidth="1"/>
     <col min="4" max="4" width="9.5546875" customWidth="1"/>
     <col min="5" max="5" width="12.109375" customWidth="1"/>
     <col min="8" max="8" width="115" customWidth="1"/>
@@ -3515,7 +3625,7 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="33" t="s">
         <v>43</v>
       </c>
       <c r="D1" t="s">
@@ -3539,7 +3649,7 @@
         <f>Przystanki!B2</f>
         <v>11</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="33">
         <v>45809</v>
       </c>
       <c r="D2">
@@ -3569,7 +3679,7 @@
         <f>Przystanki!B2</f>
         <v>11</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="33">
         <v>45809</v>
       </c>
       <c r="D3">
@@ -3599,7 +3709,7 @@
         <f>Przystanki!B2</f>
         <v>11</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="33">
         <v>45809</v>
       </c>
       <c r="D4">
@@ -3629,7 +3739,7 @@
         <f>Przystanki!B11</f>
         <v>23</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="33">
         <v>45809</v>
       </c>
       <c r="D5">
@@ -3659,7 +3769,7 @@
         <f>Przystanki!B11</f>
         <v>23</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="33">
         <v>45809</v>
       </c>
       <c r="D6">
@@ -3681,7 +3791,786 @@
         <v>INSERT INTO Bilety (IDBiletu, IDPociągu, DataZakupu, CenaBiletu, Wykorzystany, IDStart, IDStop) VALUES (5, 23, '2025-06-01', 7, 0, 1235, 1232);</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f>Przystanki!B11</f>
+        <v>23</v>
+      </c>
+      <c r="C7" s="33">
+        <v>45810</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="str">
+        <f>Przystanki!D11</f>
+        <v>1235</v>
+      </c>
+      <c r="G7" t="str">
+        <f>Przystanki!D10</f>
+        <v>1234</v>
+      </c>
+      <c r="H7" t="str">
+        <f>"INSERT INTO Bilety (IDBiletu, IDPociągu, DataZakupu, CenaBiletu, Wykorzystany, IDStart, IDStop) VALUES (" &amp; A7 &amp; ", " &amp; B7 &amp; ", '" &amp; TEXT(C7, "гггг-ММ-дд") &amp; "', " &amp; D7 &amp; ", " &amp; E7 &amp; ", " &amp; F7 &amp; ", " &amp; G7 &amp; ");"</f>
+        <v>INSERT INTO Bilety (IDBiletu, IDPociągu, DataZakupu, CenaBiletu, Wykorzystany, IDStart, IDStop) VALUES (6, 23, '2025-06-02', 7, 0, 1235, 1234);</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702DAE86-F4E2-4B0B-8912-5A3B73FF392E}">
+  <dimension ref="A1:I39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="24.77734375" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="36">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="34">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="34">
+        <v>0.3298611111111111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="36"/>
+      <c r="B7" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="C7" s="34">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="36">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="36"/>
+      <c r="B9" s="34">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="36">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="36"/>
+      <c r="B11" s="34">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="36">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="36"/>
+      <c r="B13" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="36">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="36"/>
+      <c r="B15" s="34">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="36">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="36"/>
+      <c r="B17" s="34">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="36">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="36"/>
+      <c r="B19" s="34">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="36">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="34">
+        <v>0.91319444444444442</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="36"/>
+      <c r="B21" s="34">
+        <v>0.75</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="36">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="34">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="D24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="34">
+        <v>0.3298611111111111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="36"/>
+      <c r="B25" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="C25" s="34">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="36">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="36"/>
+      <c r="B27" s="34">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="36">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="36"/>
+      <c r="B29" s="34">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="36">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="36"/>
+      <c r="B31" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="36">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="36"/>
+      <c r="B33" s="34">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="36">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="36"/>
+      <c r="B35" s="34">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="36">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="36"/>
+      <c r="B37" s="34">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="36">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="34">
+        <v>0.91319444444444442</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="36"/>
+      <c r="B39" s="34">
+        <v>0.75</v>
+      </c>
+      <c r="C39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>